--- a/ANOVA_Big3.xlsx
+++ b/ANOVA_Big3.xlsx
@@ -9,20 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="(13),(46)" sheetId="1" r:id="rId1"/>
+    <sheet name="(0,2),(3,5)" sheetId="2" r:id="rId1"/>
+    <sheet name="(0,3),(4,7)" sheetId="5" r:id="rId2"/>
+    <sheet name="(1,2),(3,4)" sheetId="3" r:id="rId3"/>
+    <sheet name="(1,3),(4,6)" sheetId="1" r:id="rId4"/>
+    <sheet name="(1,4),(5,8)" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="IDX" localSheetId="0">'(13),(46)'!$A$1</definedName>
+    <definedName name="IDX" localSheetId="0">'(0,2),(3,5)'!$A$1</definedName>
+    <definedName name="IDX" localSheetId="1">'(0,3),(4,7)'!$A$1</definedName>
+    <definedName name="IDX" localSheetId="2">'(1,2),(3,4)'!$A$1</definedName>
+    <definedName name="IDX" localSheetId="3">'(1,3),(4,6)'!$A$1</definedName>
+    <definedName name="IDX" localSheetId="4">'(1,4),(5,8)'!$A$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="46">
   <si>
     <t>SAS 系統</t>
   </si>
@@ -121,6 +129,45 @@
   </si>
   <si>
     <t>CAD_tt_bs</t>
+  </si>
+  <si>
+    <t>key35</t>
+  </si>
+  <si>
+    <t>key02</t>
+  </si>
+  <si>
+    <t>key02 key35</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>key34</t>
+  </si>
+  <si>
+    <t>key12</t>
+  </si>
+  <si>
+    <t>key12 key34</t>
+  </si>
+  <si>
+    <t>key58</t>
+  </si>
+  <si>
+    <t>key14</t>
+  </si>
+  <si>
+    <t>key14 key58</t>
+  </si>
+  <si>
+    <t>key47</t>
+  </si>
+  <si>
+    <t>key03</t>
+  </si>
+  <si>
+    <t>key03 key47</t>
   </si>
 </sst>
 </file>
@@ -857,7 +904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -899,6 +946,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1291,7 +1341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1381,6 +1431,1886 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3">
+        <v>754</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.18638</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3">
+        <v>377</v>
+      </c>
+      <c r="H5" s="3">
+        <v>220.72399999999999</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="3">
+        <v>377</v>
+      </c>
+      <c r="K5" s="9">
+        <v>71.801100000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3">
+        <v>754</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.22123</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3">
+        <v>377</v>
+      </c>
+      <c r="H6" s="3">
+        <v>201.40299999999999</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="3">
+        <v>377</v>
+      </c>
+      <c r="K6" s="9">
+        <v>69.994699999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3">
+        <v>754</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3.0464600000000002</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3">
+        <v>377</v>
+      </c>
+      <c r="H7" s="3">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="3">
+        <v>377</v>
+      </c>
+      <c r="K7" s="10">
+        <v>-12.042400000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3">
+        <v>754</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.9259999999999999E-2</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="3">
+        <v>377</v>
+      </c>
+      <c r="H8" s="3">
+        <v>10.371</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="3">
+        <v>377</v>
+      </c>
+      <c r="K8" s="9">
+        <v>13.848800000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3">
+        <v>619</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.80911999999999995</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="3">
+        <v>309</v>
+      </c>
+      <c r="H9" s="3">
+        <v>10.473000000000001</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="3">
+        <v>310</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2.0021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3">
+        <v>619</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.45052</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="3">
+        <v>309</v>
+      </c>
+      <c r="H10" s="3">
+        <v>9.8650000000000002</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="3">
+        <v>310</v>
+      </c>
+      <c r="K10" s="10">
+        <v>-0.89270000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3">
+        <v>619</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2.4020700000000001</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="3">
+        <v>309</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="3">
+        <v>310</v>
+      </c>
+      <c r="K11" s="10">
+        <v>-0.20760000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3">
+        <v>619</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.7890100000000002</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="3">
+        <v>309</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-0.57699999999999996</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="3">
+        <v>310</v>
+      </c>
+      <c r="K12" s="9">
+        <v>3.1023999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3">
+        <v>752</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2.5459399999999999</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="3">
+        <v>376</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-6.8520000000000003</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="3">
+        <v>376</v>
+      </c>
+      <c r="K13" s="9">
+        <v>3.9769999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3">
+        <v>746</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.85867000000000004</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="3">
+        <v>373</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2.649</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="3">
+        <v>373</v>
+      </c>
+      <c r="K14" s="10">
+        <v>-3.4013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3">
+        <v>746</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.39851999999999999</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="3">
+        <v>373</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-0.70199999999999996</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="3">
+        <v>373</v>
+      </c>
+      <c r="K15" s="10">
+        <v>-2.4828999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3">
+        <v>754</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.9434499999999999</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3">
+        <v>377</v>
+      </c>
+      <c r="H16" s="4">
+        <v>-2.21</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="3">
+        <v>377</v>
+      </c>
+      <c r="K16" s="9">
+        <v>3.4422999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3">
+        <v>614</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2.2009999999999998E-2</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="3">
+        <v>307</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-0.996</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="3">
+        <v>307</v>
+      </c>
+      <c r="K17" s="10">
+        <v>-1.6042000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3">
+        <v>614</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.54842000000000002</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="3">
+        <v>307</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-1.67</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="3">
+        <v>307</v>
+      </c>
+      <c r="K18" s="10">
+        <v>-4.2122000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3">
+        <v>614</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.55162</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="3">
+        <v>307</v>
+      </c>
+      <c r="H19" s="4">
+        <v>-1.0580000000000001</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="3">
+        <v>307</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1.4430000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="12">
+        <v>614</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.22253999999999999</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="12">
+        <v>307</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="12">
+        <v>307</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="6.375" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="6.375" customWidth="1"/>
+    <col min="10" max="10" width="4.5" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3">
+        <v>754</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.83011000000000001</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3">
+        <v>377</v>
+      </c>
+      <c r="H5" s="3">
+        <v>258.95800000000003</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="3">
+        <v>377</v>
+      </c>
+      <c r="K5" s="9">
+        <v>96.191000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3">
+        <v>754</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.82943</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="3">
+        <v>377</v>
+      </c>
+      <c r="H6" s="3">
+        <v>243.80099999999999</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="3">
+        <v>377</v>
+      </c>
+      <c r="K6" s="9">
+        <v>101.01300000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3">
+        <v>754</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.4534799999999999</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="3">
+        <v>377</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3.419</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="3">
+        <v>377</v>
+      </c>
+      <c r="K7" s="10">
+        <v>-15.462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3">
+        <v>754</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="3">
+        <v>377</v>
+      </c>
+      <c r="H8" s="3">
+        <v>11.737</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="3">
+        <v>377</v>
+      </c>
+      <c r="K8" s="9">
+        <v>10.638999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3">
+        <v>620</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.32403</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="3">
+        <v>310</v>
+      </c>
+      <c r="H9" s="3">
+        <v>11.708</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="3">
+        <v>310</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2.2679999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3">
+        <v>620</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.6408799999999999</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="3">
+        <v>310</v>
+      </c>
+      <c r="H10" s="3">
+        <v>10.137</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="3">
+        <v>310</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3">
+        <v>620</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6.4260299999999999</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="3">
+        <v>310</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1.5309999999999999</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="3">
+        <v>310</v>
+      </c>
+      <c r="K11" s="10">
+        <v>-0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3">
+        <v>620</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.22845</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="3">
+        <v>310</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="3">
+        <v>310</v>
+      </c>
+      <c r="K12" s="9">
+        <v>3.0670000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3">
+        <v>752</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2.4279500000000001</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="3">
+        <v>376</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-7.47</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="3">
+        <v>376</v>
+      </c>
+      <c r="K13" s="9">
+        <v>7.0679999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3">
+        <v>746</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.29114000000000001</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="3">
+        <v>373</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-1.006</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="3">
+        <v>373</v>
+      </c>
+      <c r="K14" s="10">
+        <v>-5.3760000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="3">
+        <v>746</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.19692</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="3">
+        <v>373</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-1.3240000000000001</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="3">
+        <v>373</v>
+      </c>
+      <c r="K15" s="10">
+        <v>-4.4960000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3">
+        <v>754</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.6172899999999999</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="3">
+        <v>377</v>
+      </c>
+      <c r="H16" s="4">
+        <v>-1.9870000000000001</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="3">
+        <v>377</v>
+      </c>
+      <c r="K16" s="9">
+        <v>3.1539999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="3">
+        <v>614</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3.7650000000000003E-2</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="3">
+        <v>307</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-1.62</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="3">
+        <v>307</v>
+      </c>
+      <c r="K17" s="10">
+        <v>-0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3">
+        <v>614</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.2279999999999999E-2</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="3">
+        <v>307</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-3.8719999999999999</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="3">
+        <v>307</v>
+      </c>
+      <c r="K18" s="10">
+        <v>-3.4220000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="3">
+        <v>614</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.25651</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="3">
+        <v>307</v>
+      </c>
+      <c r="H19" s="4">
+        <v>-1.5620000000000001</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="3">
+        <v>307</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1.9890000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="12">
+        <v>614</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.59153</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="12">
+        <v>307</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="12">
+        <v>307</v>
+      </c>
+      <c r="K20" s="14">
+        <v>-0.247</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="6.375" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="6.375" customWidth="1"/>
+    <col min="10" max="10" width="4.5" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3">
+        <v>754</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.19980000000000001</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3">
+        <v>377</v>
+      </c>
+      <c r="H5" s="3">
+        <v>94.5411</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="3">
+        <v>377</v>
+      </c>
+      <c r="K5" s="9">
+        <v>64.543800000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="3">
+        <v>754</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.13536999999999999</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="3">
+        <v>377</v>
+      </c>
+      <c r="H6" s="3">
+        <v>81.564999999999998</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="3">
+        <v>377</v>
+      </c>
+      <c r="K6" s="9">
+        <v>58.7029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="3">
+        <v>754</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.34738000000000002</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="3">
+        <v>377</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.3846000000000001</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="3">
+        <v>377</v>
+      </c>
+      <c r="K7" s="10">
+        <v>-5.1140999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3">
+        <v>754</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3">
+        <v>377</v>
+      </c>
+      <c r="H8" s="3">
+        <v>11.5915</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="3">
+        <v>377</v>
+      </c>
+      <c r="K8" s="9">
+        <v>10.9549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3">
+        <v>619</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.14193</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="3">
+        <v>309</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1.6386000000000001</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="3">
+        <v>310</v>
+      </c>
+      <c r="K9" s="9">
+        <v>3.1797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3">
+        <v>619</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.14727999999999999</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3">
+        <v>309</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="3">
+        <v>310</v>
+      </c>
+      <c r="K10" s="10">
+        <v>-0.29060000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3">
+        <v>619</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.24817</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="3">
+        <v>309</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1.1204000000000001</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="3">
+        <v>310</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0.63090000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3">
+        <v>619</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3.6246800000000001</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="3">
+        <v>309</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-0.46200000000000002</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="3">
+        <v>310</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2.8395000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3">
+        <v>752</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2.56203</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="3">
+        <v>376</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-5.8777999999999997</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="3">
+        <v>376</v>
+      </c>
+      <c r="K13" s="9">
+        <v>1.1398999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3">
+        <v>746</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.34460000000000002</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="3">
+        <v>373</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-0.84150000000000003</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="3">
+        <v>373</v>
+      </c>
+      <c r="K14" s="10">
+        <v>-3.2963</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3">
+        <v>746</v>
+      </c>
+      <c r="D15" s="3">
+        <v>8.7520000000000001E-2</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="3">
+        <v>373</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-1.8149999999999999</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="3">
+        <v>373</v>
+      </c>
+      <c r="K15" s="10">
+        <v>-1.2034</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3">
+        <v>754</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.69755</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="3">
+        <v>377</v>
+      </c>
+      <c r="H16" s="4">
+        <v>-2.331</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="3">
+        <v>377</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0.22459999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3">
+        <v>614</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.406E-2</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="3">
+        <v>307</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-0.65010000000000001</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="3">
+        <v>307</v>
+      </c>
+      <c r="K17" s="10">
+        <v>-1.0237000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3">
+        <v>614</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.11025</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="3">
+        <v>307</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-2.5232000000000001</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="3">
+        <v>307</v>
+      </c>
+      <c r="K18" s="10">
+        <v>-3.5903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3">
+        <v>614</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.09E-3</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="3">
+        <v>307</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.37040000000000001</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="3">
+        <v>307</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0.26960000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="12">
+        <v>614</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.17291999999999999</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="12">
+        <v>307</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0.72960000000000003</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="12">
+        <v>307</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0.31519999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="6.375" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="6.375" customWidth="1"/>
+    <col min="10" max="10" width="4.5" customWidth="1"/>
+    <col min="11" max="11" width="9.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="3">
@@ -1904,6 +3834,632 @@
       </c>
       <c r="K20" s="13">
         <v>0.16070000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="6.375" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="6.375" customWidth="1"/>
+    <col min="10" max="10" width="4.5" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="3">
+        <v>754</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.11955</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3">
+        <v>377</v>
+      </c>
+      <c r="H5" s="3">
+        <v>159.08500000000001</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="3">
+        <v>377</v>
+      </c>
+      <c r="K5" s="9">
+        <v>103.178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3">
+        <v>754</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.8760000000000003E-2</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="3">
+        <v>377</v>
+      </c>
+      <c r="H6" s="3">
+        <v>140.268</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="3">
+        <v>377</v>
+      </c>
+      <c r="K6" s="9">
+        <v>112.01600000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3">
+        <v>754</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.0209600000000001</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3">
+        <v>377</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-3.7290000000000001</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="3">
+        <v>377</v>
+      </c>
+      <c r="K7" s="10">
+        <v>-16.477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3">
+        <v>754</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.13804</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="3">
+        <v>377</v>
+      </c>
+      <c r="H8" s="3">
+        <v>22.545999999999999</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="3">
+        <v>377</v>
+      </c>
+      <c r="K8" s="9">
+        <v>7.6390000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3">
+        <v>621</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.48420000000000002</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="3">
+        <v>310</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4.8129999999999997</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="3">
+        <v>311</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1.3979999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3">
+        <v>621</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.7389999999999999E-2</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="3">
+        <v>310</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="3">
+        <v>311</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1.196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3">
+        <v>621</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5.1844400000000004</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="3">
+        <v>310</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1.748</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="3">
+        <v>311</v>
+      </c>
+      <c r="K11" s="10">
+        <v>-1.2370000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3">
+        <v>621</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.11396000000000001</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="3">
+        <v>310</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2.379</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="3">
+        <v>311</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1.4390000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3">
+        <v>752</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2.0695199999999998</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="3">
+        <v>376</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-4.7380000000000004</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="3">
+        <v>376</v>
+      </c>
+      <c r="K13" s="9">
+        <v>7.0190000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3">
+        <v>746</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.16197</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="3">
+        <v>373</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-4.1379999999999999</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="3">
+        <v>373</v>
+      </c>
+      <c r="K14" s="10">
+        <v>-7.423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3">
+        <v>746</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.43462</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="3">
+        <v>373</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-3.0179999999999998</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="3">
+        <v>373</v>
+      </c>
+      <c r="K15" s="10">
+        <v>-6.0049999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3">
+        <v>754</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.9879</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="3">
+        <v>377</v>
+      </c>
+      <c r="H16" s="4">
+        <v>-2.1059999999999999</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="3">
+        <v>377</v>
+      </c>
+      <c r="K16" s="9">
+        <v>4.3620000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3">
+        <v>614</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="3">
+        <v>307</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-1.6739999999999999</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="3">
+        <v>307</v>
+      </c>
+      <c r="K17" s="10">
+        <v>-0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3">
+        <v>614</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.50060000000000004</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="3">
+        <v>307</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-6.1130000000000004</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="3">
+        <v>307</v>
+      </c>
+      <c r="K18" s="10">
+        <v>-2.8809999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="3">
+        <v>614</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2.2880000000000001E-2</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="3">
+        <v>307</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="3">
+        <v>307</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1.127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="12">
+        <v>614</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1.3232699999999999</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="12">
+        <v>307</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="12">
+        <v>307</v>
+      </c>
+      <c r="K20" s="14">
+        <v>-0.55800000000000005</v>
       </c>
     </row>
   </sheetData>
